--- a/natmiOut/OldD2/LR-pairs_lrc2p/Slit3-Robo2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Slit3-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.730360065378714</v>
+        <v>0.8417399999999999</v>
       </c>
       <c r="H2">
-        <v>0.730360065378714</v>
+        <v>1.68348</v>
       </c>
       <c r="I2">
-        <v>0.01123674315430048</v>
+        <v>0.0119744574213572</v>
       </c>
       <c r="J2">
-        <v>0.01123674315430048</v>
+        <v>0.008423523143208028</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.340252822900854</v>
+        <v>0.5215465</v>
       </c>
       <c r="N2">
-        <v>0.340252822900854</v>
+        <v>1.043093</v>
       </c>
       <c r="O2">
-        <v>0.4013687992532526</v>
+        <v>0.3993854683363039</v>
       </c>
       <c r="P2">
-        <v>0.4013687992532526</v>
+        <v>0.3071469942766215</v>
       </c>
       <c r="Q2">
-        <v>0.2485070739791597</v>
+        <v>0.43900655091</v>
       </c>
       <c r="R2">
-        <v>0.2485070739791597</v>
+        <v>1.75602620364</v>
       </c>
       <c r="S2">
-        <v>0.004510078107358788</v>
+        <v>0.004782424285301875</v>
       </c>
       <c r="T2">
-        <v>0.004510078107358788</v>
+        <v>0.002587259814655905</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.730360065378714</v>
+        <v>0.8417399999999999</v>
       </c>
       <c r="H3">
-        <v>0.730360065378714</v>
+        <v>1.68348</v>
       </c>
       <c r="I3">
-        <v>0.01123674315430048</v>
+        <v>0.0119744574213572</v>
       </c>
       <c r="J3">
-        <v>0.01123674315430048</v>
+        <v>0.008423523143208028</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.50747830003121</v>
+        <v>0.002342</v>
       </c>
       <c r="N3">
-        <v>0.50747830003121</v>
+        <v>0.007026</v>
       </c>
       <c r="O3">
-        <v>0.5986312007467474</v>
+        <v>0.001793436954986034</v>
       </c>
       <c r="P3">
-        <v>0.5986312007467474</v>
+        <v>0.002068861340060323</v>
       </c>
       <c r="Q3">
-        <v>0.3706418843890731</v>
+        <v>0.00197135508</v>
       </c>
       <c r="R3">
-        <v>0.3706418843890731</v>
+        <v>0.01182813048</v>
       </c>
       <c r="S3">
-        <v>0.006726665046941687</v>
+        <v>2.147543445536877E-05</v>
       </c>
       <c r="T3">
-        <v>0.006726665046941687</v>
+        <v>1.74271013780865E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.7889745212973</v>
+        <v>0.8417399999999999</v>
       </c>
       <c r="H4">
-        <v>52.7889745212973</v>
+        <v>1.68348</v>
       </c>
       <c r="I4">
-        <v>0.8121694711869955</v>
+        <v>0.0119744574213572</v>
       </c>
       <c r="J4">
-        <v>0.8121694711869955</v>
+        <v>0.008423523143208028</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.340252822900854</v>
+        <v>0.7819839999999999</v>
       </c>
       <c r="N4">
-        <v>0.340252822900854</v>
+        <v>2.345952</v>
       </c>
       <c r="O4">
-        <v>0.4013687992532526</v>
+        <v>0.59882109470871</v>
       </c>
       <c r="P4">
-        <v>0.4013687992532526</v>
+        <v>0.6907841443833183</v>
       </c>
       <c r="Q4">
-        <v>17.96159759891266</v>
+        <v>0.6582272121599999</v>
       </c>
       <c r="R4">
-        <v>17.96159759891266</v>
+        <v>3.949363272959999</v>
       </c>
       <c r="S4">
-        <v>0.3259794854404735</v>
+        <v>0.007170557701599954</v>
       </c>
       <c r="T4">
-        <v>0.3259794854404735</v>
+        <v>0.005818836227174037</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.7889745212973</v>
+        <v>57.09845533333333</v>
       </c>
       <c r="H5">
-        <v>52.7889745212973</v>
+        <v>171.295366</v>
       </c>
       <c r="I5">
-        <v>0.8121694711869955</v>
+        <v>0.8122734124721006</v>
       </c>
       <c r="J5">
-        <v>0.8121694711869955</v>
+        <v>0.8570998644624763</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.50747830003121</v>
+        <v>0.5215465</v>
       </c>
       <c r="N5">
-        <v>0.50747830003121</v>
+        <v>1.043093</v>
       </c>
       <c r="O5">
-        <v>0.5986312007467474</v>
+        <v>0.3993854683363039</v>
       </c>
       <c r="P5">
-        <v>0.5986312007467474</v>
+        <v>0.3071469942766215</v>
       </c>
       <c r="Q5">
-        <v>26.78925905045881</v>
+        <v>29.77949953450634</v>
       </c>
       <c r="R5">
-        <v>26.78925905045881</v>
+        <v>178.676997207038</v>
       </c>
       <c r="S5">
-        <v>0.4861899857465219</v>
+        <v>0.3244101972572976</v>
       </c>
       <c r="T5">
-        <v>0.4861899857465219</v>
+        <v>0.2632556471645492</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0206525426694897</v>
+        <v>57.09845533333333</v>
       </c>
       <c r="H6">
-        <v>0.0206525426694897</v>
+        <v>171.295366</v>
       </c>
       <c r="I6">
-        <v>0.0003177437108913572</v>
+        <v>0.8122734124721006</v>
       </c>
       <c r="J6">
-        <v>0.0003177437108913572</v>
+        <v>0.8570998644624763</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.340252822900854</v>
+        <v>0.002342</v>
       </c>
       <c r="N6">
-        <v>0.340252822900854</v>
+        <v>0.007026</v>
       </c>
       <c r="O6">
-        <v>0.4013687992532526</v>
+        <v>0.001793436954986034</v>
       </c>
       <c r="P6">
-        <v>0.4013687992532526</v>
+        <v>0.002068861340060323</v>
       </c>
       <c r="Q6">
-        <v>0.007027085943374209</v>
+        <v>0.1337245823906667</v>
       </c>
       <c r="R6">
-        <v>0.007027085943374209</v>
+        <v>1.203521241516</v>
       </c>
       <c r="S6">
-        <v>0.0001275324117107367</v>
+        <v>0.001456761155480079</v>
       </c>
       <c r="T6">
-        <v>0.0001275324117107367</v>
+        <v>0.00177322077415736</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0206525426694897</v>
+        <v>57.09845533333333</v>
       </c>
       <c r="H7">
-        <v>0.0206525426694897</v>
+        <v>171.295366</v>
       </c>
       <c r="I7">
-        <v>0.0003177437108913572</v>
+        <v>0.8122734124721006</v>
       </c>
       <c r="J7">
-        <v>0.0003177437108913572</v>
+        <v>0.8570998644624763</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.50747830003121</v>
+        <v>0.7819839999999999</v>
       </c>
       <c r="N7">
-        <v>0.50747830003121</v>
+        <v>2.345952</v>
       </c>
       <c r="O7">
-        <v>0.5986312007467474</v>
+        <v>0.59882109470871</v>
       </c>
       <c r="P7">
-        <v>0.5986312007467474</v>
+        <v>0.6907841443833183</v>
       </c>
       <c r="Q7">
-        <v>0.01048071724523466</v>
+        <v>44.65007849538133</v>
       </c>
       <c r="R7">
-        <v>0.01048071724523466</v>
+        <v>401.8507064584319</v>
       </c>
       <c r="S7">
-        <v>0.0001902112991806205</v>
+        <v>0.4864064540593229</v>
       </c>
       <c r="T7">
-        <v>0.0001902112991806205</v>
+        <v>0.5920709965237697</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -909,57 +909,57 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0733340348819515</v>
+        <v>0.02523366666666666</v>
       </c>
       <c r="H8">
-        <v>0.0733340348819515</v>
+        <v>0.07570099999999999</v>
       </c>
       <c r="I8">
-        <v>0.001128259544160199</v>
+        <v>0.000358970070431155</v>
       </c>
       <c r="J8">
-        <v>0.001128259544160199</v>
+        <v>0.0003787803392163797</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.340252822900854</v>
+        <v>0.5215465</v>
       </c>
       <c r="N8">
-        <v>0.340252822900854</v>
+        <v>1.043093</v>
       </c>
       <c r="O8">
-        <v>0.4013687992532526</v>
+        <v>0.3993854683363039</v>
       </c>
       <c r="P8">
-        <v>0.4013687992532526</v>
+        <v>0.3071469942766215</v>
       </c>
       <c r="Q8">
-        <v>0.0249521123832937</v>
+        <v>0.01316053053216667</v>
       </c>
       <c r="R8">
-        <v>0.0249521123832937</v>
+        <v>0.078963183193</v>
       </c>
       <c r="S8">
-        <v>0.0004528481784856012</v>
+        <v>0.0001433674296978628</v>
       </c>
       <c r="T8">
-        <v>0.0004528481784856012</v>
+        <v>0.0001163412426813901</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.0733340348819515</v>
+        <v>0.02523366666666666</v>
       </c>
       <c r="H9">
-        <v>0.0733340348819515</v>
+        <v>0.07570099999999999</v>
       </c>
       <c r="I9">
-        <v>0.001128259544160199</v>
+        <v>0.000358970070431155</v>
       </c>
       <c r="J9">
-        <v>0.001128259544160199</v>
+        <v>0.0003787803392163797</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.50747830003121</v>
+        <v>0.002342</v>
       </c>
       <c r="N9">
-        <v>0.50747830003121</v>
+        <v>0.007026</v>
       </c>
       <c r="O9">
-        <v>0.5986312007467474</v>
+        <v>0.001793436954986034</v>
       </c>
       <c r="P9">
-        <v>0.5986312007467474</v>
+        <v>0.002068861340060323</v>
       </c>
       <c r="Q9">
-        <v>0.0372154313563222</v>
+        <v>5.909724733333333E-05</v>
       </c>
       <c r="R9">
-        <v>0.0372154313563222</v>
+        <v>0.000531875226</v>
       </c>
       <c r="S9">
-        <v>0.0006754113656745977</v>
+        <v>6.437901900451729E-07</v>
       </c>
       <c r="T9">
-        <v>0.0006754113656745977</v>
+        <v>7.83644000179703E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.84226313486372</v>
+        <v>0.02523366666666666</v>
       </c>
       <c r="H10">
-        <v>1.84226313486372</v>
+        <v>0.07570099999999999</v>
       </c>
       <c r="I10">
-        <v>0.02834360564109693</v>
+        <v>0.000358970070431155</v>
       </c>
       <c r="J10">
-        <v>0.02834360564109693</v>
+        <v>0.0003787803392163797</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.340252822900854</v>
+        <v>0.7819839999999999</v>
       </c>
       <c r="N10">
-        <v>0.340252822900854</v>
+        <v>2.345952</v>
       </c>
       <c r="O10">
-        <v>0.4013687992532526</v>
+        <v>0.59882109470871</v>
       </c>
       <c r="P10">
-        <v>0.4013687992532526</v>
+        <v>0.6907841443833183</v>
       </c>
       <c r="Q10">
-        <v>0.6268352321635574</v>
+        <v>0.01973232359466666</v>
       </c>
       <c r="R10">
-        <v>0.6268352321635574</v>
+        <v>0.1775909123519999</v>
       </c>
       <c r="S10">
-        <v>0.01137623896267479</v>
+        <v>0.000214958850543247</v>
       </c>
       <c r="T10">
-        <v>0.01137623896267479</v>
+        <v>0.0002616554525348099</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.84226313486372</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="H11">
-        <v>1.84226313486372</v>
+        <v>0.2433</v>
       </c>
       <c r="I11">
-        <v>0.02834360564109693</v>
+        <v>0.00115371551413984</v>
       </c>
       <c r="J11">
-        <v>0.02834360564109693</v>
+        <v>0.001217384929278942</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.50747830003121</v>
+        <v>0.5215465</v>
       </c>
       <c r="N11">
-        <v>0.50747830003121</v>
+        <v>1.043093</v>
       </c>
       <c r="O11">
-        <v>0.5986312007467474</v>
+        <v>0.3993854683363039</v>
       </c>
       <c r="P11">
-        <v>0.5986312007467474</v>
+        <v>0.3071469942766215</v>
       </c>
       <c r="Q11">
-        <v>0.9349085638908083</v>
+        <v>0.04229742115000001</v>
       </c>
       <c r="R11">
-        <v>0.9349085638908083</v>
+        <v>0.2537845269</v>
       </c>
       <c r="S11">
-        <v>0.01696736667842214</v>
+        <v>0.0004607772109415997</v>
       </c>
       <c r="T11">
-        <v>0.01696736667842214</v>
+        <v>0.0003739161219056845</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.54190254826049</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="H12">
-        <v>9.54190254826049</v>
+        <v>0.2433</v>
       </c>
       <c r="I12">
-        <v>0.1468041767625555</v>
+        <v>0.00115371551413984</v>
       </c>
       <c r="J12">
-        <v>0.1468041767625555</v>
+        <v>0.001217384929278942</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.340252822900854</v>
+        <v>0.002342</v>
       </c>
       <c r="N12">
-        <v>0.340252822900854</v>
+        <v>0.007026</v>
       </c>
       <c r="O12">
-        <v>0.4013687992532526</v>
+        <v>0.001793436954986034</v>
       </c>
       <c r="P12">
-        <v>0.4013687992532526</v>
+        <v>0.002068861340060323</v>
       </c>
       <c r="Q12">
-        <v>3.246659277890484</v>
+        <v>0.0001899362</v>
       </c>
       <c r="R12">
-        <v>3.246659277890484</v>
+        <v>0.0017094258</v>
       </c>
       <c r="S12">
-        <v>0.05892261615254915</v>
+        <v>2.069116038599101E-06</v>
       </c>
       <c r="T12">
-        <v>0.05892261615254915</v>
+        <v>2.518600616157274E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.54190254826049</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="H13">
-        <v>9.54190254826049</v>
+        <v>0.2433</v>
       </c>
       <c r="I13">
-        <v>0.1468041767625555</v>
+        <v>0.00115371551413984</v>
       </c>
       <c r="J13">
-        <v>0.1468041767625555</v>
+        <v>0.001217384929278942</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.50747830003121</v>
+        <v>0.7819839999999999</v>
       </c>
       <c r="N13">
-        <v>0.50747830003121</v>
+        <v>2.345952</v>
       </c>
       <c r="O13">
-        <v>0.5986312007467474</v>
+        <v>0.59882109470871</v>
       </c>
       <c r="P13">
-        <v>0.5986312007467474</v>
+        <v>0.6907841443833183</v>
       </c>
       <c r="Q13">
-        <v>4.842308484254704</v>
+        <v>0.06341890239999999</v>
       </c>
       <c r="R13">
-        <v>4.842308484254704</v>
+        <v>0.5707701216</v>
       </c>
       <c r="S13">
-        <v>0.08788156061000635</v>
+        <v>0.0006908691871596413</v>
       </c>
       <c r="T13">
-        <v>0.08788156061000635</v>
+        <v>0.0008409502067571005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.060578</v>
+      </c>
+      <c r="H14">
+        <v>6.181734</v>
+      </c>
+      <c r="I14">
+        <v>0.02931345014420769</v>
+      </c>
+      <c r="J14">
+        <v>0.03093115416527428</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.5215465</v>
+      </c>
+      <c r="N14">
+        <v>1.043093</v>
+      </c>
+      <c r="O14">
+        <v>0.3993854683363039</v>
+      </c>
+      <c r="P14">
+        <v>0.3071469942766215</v>
+      </c>
+      <c r="Q14">
+        <v>1.074687243877</v>
+      </c>
+      <c r="R14">
+        <v>6.448123463262</v>
+      </c>
+      <c r="S14">
+        <v>0.01170736601439728</v>
+      </c>
+      <c r="T14">
+        <v>0.009500411031370793</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.060578</v>
+      </c>
+      <c r="H15">
+        <v>6.181734</v>
+      </c>
+      <c r="I15">
+        <v>0.02931345014420769</v>
+      </c>
+      <c r="J15">
+        <v>0.03093115416527428</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.002342</v>
+      </c>
+      <c r="N15">
+        <v>0.007026</v>
+      </c>
+      <c r="O15">
+        <v>0.001793436954986034</v>
+      </c>
+      <c r="P15">
+        <v>0.002068861340060323</v>
+      </c>
+      <c r="Q15">
+        <v>0.004825873676</v>
+      </c>
+      <c r="R15">
+        <v>0.043432863084</v>
+      </c>
+      <c r="S15">
+        <v>5.257182476676275E-05</v>
+      </c>
+      <c r="T15">
+        <v>6.399226905598177E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.060578</v>
+      </c>
+      <c r="H16">
+        <v>6.181734</v>
+      </c>
+      <c r="I16">
+        <v>0.02931345014420769</v>
+      </c>
+      <c r="J16">
+        <v>0.03093115416527428</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.7819839999999999</v>
+      </c>
+      <c r="N16">
+        <v>2.345952</v>
+      </c>
+      <c r="O16">
+        <v>0.59882109470871</v>
+      </c>
+      <c r="P16">
+        <v>0.6907841443833183</v>
+      </c>
+      <c r="Q16">
+        <v>1.611339026752</v>
+      </c>
+      <c r="R16">
+        <v>14.502051240768</v>
+      </c>
+      <c r="S16">
+        <v>0.01755351230504364</v>
+      </c>
+      <c r="T16">
+        <v>0.0213667508648475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.1875185</v>
+      </c>
+      <c r="H17">
+        <v>20.375037</v>
+      </c>
+      <c r="I17">
+        <v>0.1449259943777636</v>
+      </c>
+      <c r="J17">
+        <v>0.1019492929605459</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5215465</v>
+      </c>
+      <c r="N17">
+        <v>1.043093</v>
+      </c>
+      <c r="O17">
+        <v>0.3993854683363039</v>
+      </c>
+      <c r="P17">
+        <v>0.3071469942766215</v>
+      </c>
+      <c r="Q17">
+        <v>5.31326461736025</v>
+      </c>
+      <c r="R17">
+        <v>21.253058469441</v>
+      </c>
+      <c r="S17">
+        <v>0.05788133613866767</v>
+      </c>
+      <c r="T17">
+        <v>0.0313134189014584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>10.1875185</v>
+      </c>
+      <c r="H18">
+        <v>20.375037</v>
+      </c>
+      <c r="I18">
+        <v>0.1449259943777636</v>
+      </c>
+      <c r="J18">
+        <v>0.1019492929605459</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.002342</v>
+      </c>
+      <c r="N18">
+        <v>0.007026</v>
+      </c>
+      <c r="O18">
+        <v>0.001793436954986034</v>
+      </c>
+      <c r="P18">
+        <v>0.002068861340060323</v>
+      </c>
+      <c r="Q18">
+        <v>0.023859168327</v>
+      </c>
+      <c r="R18">
+        <v>0.143155009962</v>
+      </c>
+      <c r="S18">
+        <v>0.0002599156340551795</v>
+      </c>
+      <c r="T18">
+        <v>0.0002109189508525575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>10.1875185</v>
+      </c>
+      <c r="H19">
+        <v>20.375037</v>
+      </c>
+      <c r="I19">
+        <v>0.1449259943777636</v>
+      </c>
+      <c r="J19">
+        <v>0.1019492929605459</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7819839999999999</v>
+      </c>
+      <c r="N19">
+        <v>2.345952</v>
+      </c>
+      <c r="O19">
+        <v>0.59882109470871</v>
+      </c>
+      <c r="P19">
+        <v>0.6907841443833183</v>
+      </c>
+      <c r="Q19">
+        <v>7.966476466703998</v>
+      </c>
+      <c r="R19">
+        <v>47.79885880022399</v>
+      </c>
+      <c r="S19">
+        <v>0.08678474260504077</v>
+      </c>
+      <c r="T19">
+        <v>0.07042495510823497</v>
       </c>
     </row>
   </sheetData>
